--- a/App/backend/excel_to_databases/all_carousels.xlsx
+++ b/App/backend/excel_to_databases/all_carousels.xlsx
@@ -43,37 +43,37 @@
     <t xml:space="preserve">endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">image_filepath</t>
+    <t xml:space="preserve">image_thumbnail_filepath</t>
   </si>
   <si>
     <t xml:space="preserve">title</t>
   </si>
   <si>
-    <t xml:space="preserve">./assets/images/uploads/bulk_carousels/images/1.png</t>
+    <t xml:space="preserve">1.png</t>
   </si>
   <si>
     <t xml:space="preserve">DASJKD</t>
   </si>
   <si>
-    <t xml:space="preserve">./assets/images/uploads/bulk_carousels/images/2.png</t>
+    <t xml:space="preserve">2.png</t>
   </si>
   <si>
     <t xml:space="preserve">FSDF</t>
   </si>
   <si>
-    <t xml:space="preserve">./assets/images/uploads/bulk_carousels/images/3.png</t>
+    <t xml:space="preserve">3.png</t>
   </si>
   <si>
     <t xml:space="preserve">FJ</t>
   </si>
   <si>
-    <t xml:space="preserve">./assets/images/uploads/bulk_carousels/images/4.png</t>
+    <t xml:space="preserve">4.png</t>
   </si>
   <si>
     <t xml:space="preserve">GFDG</t>
   </si>
   <si>
-    <t xml:space="preserve">./assets/images/uploads/bulk_carousels/images/5.png</t>
+    <t xml:space="preserve">5.png</t>
   </si>
   <si>
     <t xml:space="preserve">HGH</t>
@@ -146,6 +146,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -245,10 +246,10 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -355,7 +356,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -419,7 +420,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -459,7 +460,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
